--- a/src/kraken_files/excel_files/PAXGUSD.xlsx
+++ b/src/kraken_files/excel_files/PAXGUSD.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>Required Change %</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Profit $</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,16 +489,19 @@
         <v>0.15625</v>
       </c>
       <c r="D2" t="n">
-        <v>1482.35292651346</v>
+        <v>1510.73964700351</v>
       </c>
       <c r="E2" t="n">
-        <v>1585.09929211289</v>
+        <v>1615.453582072715</v>
       </c>
       <c r="F2" t="n">
-        <v>1600.950285034019</v>
+        <v>1631.608117893442</v>
       </c>
       <c r="G2" t="n">
-        <v>7.407935126357701</v>
+        <v>7.407935126357712</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.954361026031688</v>
       </c>
     </row>
     <row r="3">
@@ -507,16 +515,19 @@
         <v>0.390625</v>
       </c>
       <c r="D3" t="n">
-        <v>1262.207405397656</v>
+        <v>1286.378389362836</v>
       </c>
       <c r="E3" t="n">
-        <v>1423.653348755273</v>
+        <v>1450.915985717776</v>
       </c>
       <c r="F3" t="n">
-        <v>1437.889882242826</v>
+        <v>1465.425145574953</v>
       </c>
       <c r="G3" t="n">
         <v>12.21807587735019</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8.392011017605801</v>
       </c>
     </row>
     <row r="4">
@@ -530,16 +541,19 @@
         <v>0.9765625</v>
       </c>
       <c r="D4" t="n">
-        <v>918.7803924056801</v>
+        <v>936.37482739108</v>
       </c>
       <c r="E4" t="n">
-        <v>1171.216870580477</v>
+        <v>1193.645406554428</v>
       </c>
       <c r="F4" t="n">
-        <v>1182.929039286281</v>
+        <v>1205.581860619972</v>
       </c>
       <c r="G4" t="n">
-        <v>22.33005007975584</v>
+        <v>22.33005007975585</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.25296070393357</v>
       </c>
     </row>
   </sheetData>
@@ -576,41 +590,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OEC2FG-Q2UOK-RPJKBN</t>
+          <t>OISK3S-P6UW3-4V72RS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1827.18</v>
+        <v>1862.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OAWYCM-B6GEC-2GPCB3</t>
+          <t>O3WAW3-OQKPP-DRPIDH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1808.41</v>
+        <v>1843.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OLOHK5-ZUTMV-U6HM3H</t>
+          <t>OCLLWR-WOPUJ-NS6TA3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1769.74</v>
+        <v>1803.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>O634PH-AIYDG-PUO7EL</t>
+          <t>OV3KIU-7ON4Z-E5J5KU</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.72</v>
+        <v>1737.36</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +656,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OS6BGI-KO4M6-4LMGJB</t>
+          <t>O7BQHE-BKLJS-FQN3IY</t>
         </is>
       </c>
     </row>
